--- a/apps/load_data/2018/10/PLMOVMAE.xlsx
+++ b/apps/load_data/2018/10/PLMOVMAE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2018\HHY1018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACTUALIZADOS\2018\HHY1018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED48E56D-5EDB-4DCE-A8BA-4FF2FCB0BF52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F8CC08-983D-4D7C-AE82-00A674D9589E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CF$277</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CF$269</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10957" uniqueCount="2636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10944" uniqueCount="2634">
   <si>
     <t>CODEJE</t>
   </si>
@@ -6409,9 +6410,6 @@
     <t>08771747</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>1047    134899    1348991081    326625    3266251082    175875    1758752001         0     424612006     46100     461002026    329303    3293032027      3068      30682029      1500      15002086      2500      25002180       250       250</t>
   </si>
   <si>
@@ -7736,9 +7734,6 @@
   </si>
   <si>
     <t>06567208</t>
-  </si>
-  <si>
-    <t>S/M</t>
   </si>
   <si>
     <t>6501080BIHTE003</t>
@@ -8423,7 +8418,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -8431,6 +8426,7 @@
     <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -8788,8 +8784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A245" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="A270" sqref="A270:XFD277"/>
+    <sheetView tabSelected="1" topLeftCell="U10" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="AQ287" sqref="AQ287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44936,12 +44932,7 @@
       <c r="AA208" s="1">
         <v>0</v>
       </c>
-      <c r="AC208" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD208" s="1" t="s">
-        <v>2128</v>
-      </c>
+      <c r="AC208" s="3"/>
       <c r="AF208" s="1" t="s">
         <v>103</v>
       </c>
@@ -45006,10 +44997,10 @@
         <v>110</v>
       </c>
       <c r="BH208" s="1" t="s">
+        <v>2128</v>
+      </c>
+      <c r="BI208" s="1" t="s">
         <v>2129</v>
-      </c>
-      <c r="BI208" s="1" t="s">
-        <v>2130</v>
       </c>
       <c r="BM208" s="1" t="s">
         <v>113</v>
@@ -45021,7 +45012,7 @@
         <v>152</v>
       </c>
       <c r="BT208" s="1" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="BU208" s="1" t="s">
         <v>117</v>
@@ -45042,13 +45033,13 @@
         <v>98</v>
       </c>
       <c r="CC208" s="1" t="s">
+        <v>2131</v>
+      </c>
+      <c r="CD208" s="1" t="s">
         <v>2132</v>
       </c>
-      <c r="CD208" s="1" t="s">
+      <c r="CE208" s="1" t="s">
         <v>2133</v>
-      </c>
-      <c r="CE208" s="1" t="s">
-        <v>2134</v>
       </c>
     </row>
     <row r="209" spans="1:83" x14ac:dyDescent="0.25">
@@ -45083,13 +45074,13 @@
         <v>93</v>
       </c>
       <c r="K209" s="1" t="s">
+        <v>2134</v>
+      </c>
+      <c r="L209" s="1" t="s">
         <v>2135</v>
       </c>
-      <c r="L209" s="1" t="s">
+      <c r="N209" s="1" t="s">
         <v>2136</v>
-      </c>
-      <c r="N209" s="1" t="s">
-        <v>2137</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>97</v>
@@ -45121,12 +45112,7 @@
       <c r="AB209" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="AC209" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD209" s="1" t="s">
-        <v>2128</v>
-      </c>
+      <c r="AC209" s="3"/>
       <c r="AF209" s="1" t="s">
         <v>103</v>
       </c>
@@ -45173,7 +45159,7 @@
         <v>98</v>
       </c>
       <c r="AZ209" s="1" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="BB209" s="1">
         <v>10</v>
@@ -45191,10 +45177,10 @@
         <v>110</v>
       </c>
       <c r="BH209" s="1" t="s">
+        <v>2138</v>
+      </c>
+      <c r="BI209" s="1" t="s">
         <v>2139</v>
-      </c>
-      <c r="BI209" s="1" t="s">
-        <v>2140</v>
       </c>
       <c r="BM209" s="1" t="s">
         <v>113</v>
@@ -45206,13 +45192,13 @@
         <v>99</v>
       </c>
       <c r="BR209" s="1" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="BS209" s="3">
         <v>36949</v>
       </c>
       <c r="BT209" s="1" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="BU209" s="1" t="s">
         <v>117</v>
@@ -45236,13 +45222,13 @@
         <v>98</v>
       </c>
       <c r="CC209" s="1" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="CD209" s="1" t="s">
         <v>1776</v>
       </c>
       <c r="CE209" s="1" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="210" spans="1:83" x14ac:dyDescent="0.25">
@@ -45277,13 +45263,13 @@
         <v>93</v>
       </c>
       <c r="K210" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="L210" s="1" t="s">
         <v>2145</v>
       </c>
-      <c r="L210" s="1" t="s">
+      <c r="N210" s="1" t="s">
         <v>2146</v>
-      </c>
-      <c r="N210" s="1" t="s">
-        <v>2147</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>97</v>
@@ -45315,12 +45301,7 @@
       <c r="AB210" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="AC210" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD210" s="1" t="s">
-        <v>2128</v>
-      </c>
+      <c r="AC210" s="3"/>
       <c r="AF210" s="1" t="s">
         <v>103</v>
       </c>
@@ -45367,7 +45348,7 @@
         <v>98</v>
       </c>
       <c r="AZ210" s="1" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="BB210" s="1">
         <v>10</v>
@@ -45388,10 +45369,10 @@
         <v>110</v>
       </c>
       <c r="BH210" s="1" t="s">
+        <v>2148</v>
+      </c>
+      <c r="BI210" s="1" t="s">
         <v>2149</v>
-      </c>
-      <c r="BI210" s="1" t="s">
-        <v>2150</v>
       </c>
       <c r="BM210" s="1" t="s">
         <v>113</v>
@@ -45403,13 +45384,13 @@
         <v>99</v>
       </c>
       <c r="BR210" s="1" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="BS210" s="3">
         <v>36825</v>
       </c>
       <c r="BT210" s="1" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="BU210" s="1" t="s">
         <v>117</v>
@@ -45433,13 +45414,13 @@
         <v>98</v>
       </c>
       <c r="CC210" s="1" t="s">
+        <v>2152</v>
+      </c>
+      <c r="CD210" s="1" t="s">
         <v>2153</v>
       </c>
-      <c r="CD210" s="1" t="s">
+      <c r="CE210" s="1" t="s">
         <v>2154</v>
-      </c>
-      <c r="CE210" s="1" t="s">
-        <v>2155</v>
       </c>
     </row>
     <row r="211" spans="1:83" x14ac:dyDescent="0.25">
@@ -45474,13 +45455,13 @@
         <v>93</v>
       </c>
       <c r="K211" s="1" t="s">
+        <v>2155</v>
+      </c>
+      <c r="L211" s="1" t="s">
         <v>2156</v>
       </c>
-      <c r="L211" s="1" t="s">
+      <c r="N211" s="1" t="s">
         <v>2157</v>
-      </c>
-      <c r="N211" s="1" t="s">
-        <v>2158</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>97</v>
@@ -45509,12 +45490,7 @@
       <c r="AA211" s="1">
         <v>0</v>
       </c>
-      <c r="AC211" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD211" s="1" t="s">
-        <v>2128</v>
-      </c>
+      <c r="AC211" s="3"/>
       <c r="AF211" s="1" t="s">
         <v>103</v>
       </c>
@@ -45564,7 +45540,7 @@
         <v>98</v>
       </c>
       <c r="AZ211" s="1" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="BB211" s="1">
         <v>10</v>
@@ -45582,10 +45558,10 @@
         <v>110</v>
       </c>
       <c r="BH211" s="1" t="s">
+        <v>2159</v>
+      </c>
+      <c r="BI211" s="1" t="s">
         <v>2160</v>
-      </c>
-      <c r="BI211" s="1" t="s">
-        <v>2161</v>
       </c>
       <c r="BM211" s="1" t="s">
         <v>113</v>
@@ -45594,7 +45570,7 @@
         <v>102</v>
       </c>
       <c r="BT211" s="1" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="BU211" s="1" t="s">
         <v>117</v>
@@ -45612,13 +45588,13 @@
         <v>98</v>
       </c>
       <c r="CC211" s="1" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="CD211" s="1" t="s">
         <v>1107</v>
       </c>
       <c r="CE211" s="1" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="212" spans="1:83" x14ac:dyDescent="0.25">
@@ -45653,13 +45629,13 @@
         <v>93</v>
       </c>
       <c r="K212" s="1" t="s">
+        <v>2164</v>
+      </c>
+      <c r="L212" s="1" t="s">
         <v>2165</v>
       </c>
-      <c r="L212" s="1" t="s">
+      <c r="N212" s="1" t="s">
         <v>2166</v>
-      </c>
-      <c r="N212" s="1" t="s">
-        <v>2167</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>97</v>
@@ -45688,12 +45664,7 @@
       <c r="AA212" s="1">
         <v>0</v>
       </c>
-      <c r="AC212" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD212" s="1" t="s">
-        <v>2128</v>
-      </c>
+      <c r="AC212" s="3"/>
       <c r="AF212" s="1" t="s">
         <v>103</v>
       </c>
@@ -45743,7 +45714,7 @@
         <v>98</v>
       </c>
       <c r="AZ212" s="1" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="BB212" s="1">
         <v>10</v>
@@ -45761,7 +45732,7 @@
         <v>110</v>
       </c>
       <c r="BH212" s="1" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="BI212" s="1" t="s">
         <v>1651</v>
@@ -45773,7 +45744,7 @@
         <v>102</v>
       </c>
       <c r="BT212" s="1" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="BU212" s="1" t="s">
         <v>117</v>
@@ -45794,10 +45765,10 @@
         <v>638</v>
       </c>
       <c r="CD212" s="1" t="s">
+        <v>2170</v>
+      </c>
+      <c r="CE212" s="1" t="s">
         <v>2171</v>
-      </c>
-      <c r="CE212" s="1" t="s">
-        <v>2172</v>
       </c>
     </row>
     <row r="213" spans="1:83" x14ac:dyDescent="0.25">
@@ -45832,13 +45803,13 @@
         <v>93</v>
       </c>
       <c r="K213" s="1" t="s">
+        <v>2172</v>
+      </c>
+      <c r="L213" s="1" t="s">
         <v>2173</v>
       </c>
-      <c r="L213" s="1" t="s">
+      <c r="N213" s="1" t="s">
         <v>2174</v>
-      </c>
-      <c r="N213" s="1" t="s">
-        <v>2175</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>97</v>
@@ -45867,12 +45838,7 @@
       <c r="AA213" s="1">
         <v>0</v>
       </c>
-      <c r="AC213" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD213" s="1" t="s">
-        <v>2128</v>
-      </c>
+      <c r="AC213" s="3"/>
       <c r="AF213" s="1" t="s">
         <v>103</v>
       </c>
@@ -45922,7 +45888,7 @@
         <v>98</v>
       </c>
       <c r="AZ213" s="1" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="BB213" s="1">
         <v>10</v>
@@ -45940,10 +45906,10 @@
         <v>110</v>
       </c>
       <c r="BH213" s="1" t="s">
+        <v>2176</v>
+      </c>
+      <c r="BI213" s="1" t="s">
         <v>2177</v>
-      </c>
-      <c r="BI213" s="1" t="s">
-        <v>2178</v>
       </c>
       <c r="BM213" s="1" t="s">
         <v>113</v>
@@ -45952,7 +45918,7 @@
         <v>102</v>
       </c>
       <c r="BT213" s="1" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="BU213" s="1" t="s">
         <v>117</v>
@@ -45970,13 +45936,13 @@
         <v>98</v>
       </c>
       <c r="CC213" s="1" t="s">
+        <v>2179</v>
+      </c>
+      <c r="CD213" s="1" t="s">
+        <v>2179</v>
+      </c>
+      <c r="CE213" s="1" t="s">
         <v>2180</v>
-      </c>
-      <c r="CD213" s="1" t="s">
-        <v>2180</v>
-      </c>
-      <c r="CE213" s="1" t="s">
-        <v>2181</v>
       </c>
     </row>
     <row r="214" spans="1:83" x14ac:dyDescent="0.25">
@@ -46011,13 +45977,13 @@
         <v>93</v>
       </c>
       <c r="K214" s="1" t="s">
+        <v>2181</v>
+      </c>
+      <c r="L214" s="1" t="s">
         <v>2182</v>
       </c>
-      <c r="L214" s="1" t="s">
+      <c r="N214" s="1" t="s">
         <v>2183</v>
-      </c>
-      <c r="N214" s="1" t="s">
-        <v>2184</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>97</v>
@@ -46052,12 +46018,7 @@
       <c r="AA214" s="1">
         <v>0</v>
       </c>
-      <c r="AC214" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD214" s="1" t="s">
-        <v>2128</v>
-      </c>
+      <c r="AC214" s="3"/>
       <c r="AF214" s="1" t="s">
         <v>103</v>
       </c>
@@ -46104,7 +46065,7 @@
         <v>98</v>
       </c>
       <c r="AZ214" s="1" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="BB214" s="1">
         <v>10</v>
@@ -46113,7 +46074,7 @@
         <v>18</v>
       </c>
       <c r="BD214" s="1" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="BE214" s="1" t="s">
         <v>108</v>
@@ -46125,10 +46086,10 @@
         <v>110</v>
       </c>
       <c r="BH214" s="1" t="s">
+        <v>2186</v>
+      </c>
+      <c r="BI214" s="1" t="s">
         <v>2187</v>
-      </c>
-      <c r="BI214" s="1" t="s">
-        <v>2188</v>
       </c>
       <c r="BM214" s="1" t="s">
         <v>113</v>
@@ -46140,13 +46101,13 @@
         <v>114</v>
       </c>
       <c r="BR214" s="1" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="BS214" s="3">
         <v>35243</v>
       </c>
       <c r="BT214" s="1" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="BU214" s="1" t="s">
         <v>117</v>
@@ -46164,13 +46125,13 @@
         <v>98</v>
       </c>
       <c r="CC214" s="1" t="s">
+        <v>2190</v>
+      </c>
+      <c r="CD214" s="1" t="s">
         <v>2191</v>
       </c>
-      <c r="CD214" s="1" t="s">
+      <c r="CE214" s="1" t="s">
         <v>2192</v>
-      </c>
-      <c r="CE214" s="1" t="s">
-        <v>2193</v>
       </c>
     </row>
     <row r="215" spans="1:83" x14ac:dyDescent="0.25">
@@ -46205,13 +46166,13 @@
         <v>93</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2193</v>
+      </c>
+      <c r="L215" s="1" t="s">
         <v>2194</v>
       </c>
-      <c r="L215" s="1" t="s">
+      <c r="N215" s="1" t="s">
         <v>2195</v>
-      </c>
-      <c r="N215" s="1" t="s">
-        <v>2196</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>97</v>
@@ -46240,12 +46201,7 @@
       <c r="AA215" s="1">
         <v>0</v>
       </c>
-      <c r="AC215" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD215" s="1" t="s">
-        <v>2128</v>
-      </c>
+      <c r="AC215" s="3"/>
       <c r="AF215" s="1" t="s">
         <v>103</v>
       </c>
@@ -46295,7 +46251,7 @@
         <v>98</v>
       </c>
       <c r="AZ215" s="1" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="BB215" s="1">
         <v>10</v>
@@ -46313,7 +46269,7 @@
         <v>110</v>
       </c>
       <c r="BH215" s="1" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="BI215" s="1" t="s">
         <v>563</v>
@@ -46325,7 +46281,7 @@
         <v>102</v>
       </c>
       <c r="BT215" s="1" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="BU215" s="1" t="s">
         <v>117</v>
@@ -46343,13 +46299,13 @@
         <v>98</v>
       </c>
       <c r="CC215" s="1" t="s">
+        <v>2199</v>
+      </c>
+      <c r="CD215" s="1" t="s">
         <v>2200</v>
       </c>
-      <c r="CD215" s="1" t="s">
+      <c r="CE215" s="1" t="s">
         <v>2201</v>
-      </c>
-      <c r="CE215" s="1" t="s">
-        <v>2202</v>
       </c>
     </row>
     <row r="216" spans="1:83" x14ac:dyDescent="0.25">
@@ -46384,13 +46340,13 @@
         <v>93</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2202</v>
+      </c>
+      <c r="L216" s="1" t="s">
         <v>2203</v>
       </c>
-      <c r="L216" s="1" t="s">
+      <c r="N216" s="1" t="s">
         <v>2204</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2205</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>97</v>
@@ -46419,12 +46375,7 @@
       <c r="AA216" s="1">
         <v>0</v>
       </c>
-      <c r="AC216" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD216" s="1" t="s">
-        <v>2128</v>
-      </c>
+      <c r="AC216" s="3"/>
       <c r="AF216" s="1" t="s">
         <v>103</v>
       </c>
@@ -46474,7 +46425,7 @@
         <v>98</v>
       </c>
       <c r="AZ216" s="1" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="BB216" s="1">
         <v>10</v>
@@ -46492,7 +46443,7 @@
         <v>110</v>
       </c>
       <c r="BH216" s="1" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="BI216" s="1" t="s">
         <v>563</v>
@@ -46507,7 +46458,7 @@
         <v>152</v>
       </c>
       <c r="BT216" s="1" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="BU216" s="1" t="s">
         <v>117</v>
@@ -46525,13 +46476,13 @@
         <v>98</v>
       </c>
       <c r="CC216" s="1" t="s">
+        <v>2208</v>
+      </c>
+      <c r="CD216" s="1" t="s">
         <v>2209</v>
       </c>
-      <c r="CD216" s="1" t="s">
+      <c r="CE216" s="1" t="s">
         <v>2210</v>
-      </c>
-      <c r="CE216" s="1" t="s">
-        <v>2211</v>
       </c>
     </row>
     <row r="217" spans="1:83" x14ac:dyDescent="0.25">
@@ -46566,13 +46517,13 @@
         <v>93</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2211</v>
+      </c>
+      <c r="L217" s="1" t="s">
         <v>2212</v>
       </c>
-      <c r="L217" s="1" t="s">
+      <c r="N217" s="1" t="s">
         <v>2213</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2214</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>97</v>
@@ -46601,12 +46552,7 @@
       <c r="AA217" s="1">
         <v>0</v>
       </c>
-      <c r="AC217" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2128</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>103</v>
       </c>
@@ -46653,7 +46599,7 @@
         <v>98</v>
       </c>
       <c r="AZ217" s="1" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="BB217" s="1">
         <v>10</v>
@@ -46662,7 +46608,7 @@
         <v>18</v>
       </c>
       <c r="BD217" s="1" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="BE217" s="1" t="s">
         <v>108</v>
@@ -46674,7 +46620,7 @@
         <v>110</v>
       </c>
       <c r="BH217" s="1" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="BI217" s="1" t="s">
         <v>456</v>
@@ -46689,13 +46635,13 @@
         <v>211</v>
       </c>
       <c r="BR217" s="1" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="BS217" s="3">
         <v>34307</v>
       </c>
       <c r="BT217" s="1" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="BU217" s="1" t="s">
         <v>117</v>
@@ -46713,13 +46659,13 @@
         <v>98</v>
       </c>
       <c r="CC217" s="1" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="CD217" s="1" t="s">
         <v>422</v>
       </c>
       <c r="CE217" s="1" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="218" spans="1:83" x14ac:dyDescent="0.25">
@@ -46754,13 +46700,13 @@
         <v>93</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2221</v>
+      </c>
+      <c r="L218" s="1" t="s">
         <v>2222</v>
       </c>
-      <c r="L218" s="1" t="s">
+      <c r="N218" s="1" t="s">
         <v>2223</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2224</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>97</v>
@@ -46792,12 +46738,7 @@
       <c r="AA218" s="1">
         <v>0</v>
       </c>
-      <c r="AC218" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2128</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>103</v>
       </c>
@@ -46847,7 +46788,7 @@
         <v>98</v>
       </c>
       <c r="AZ218" s="1" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="BB218" s="1">
         <v>10</v>
@@ -46868,7 +46809,7 @@
         <v>110</v>
       </c>
       <c r="BH218" s="1" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="BI218" s="1" t="s">
         <v>775</v>
@@ -46880,7 +46821,7 @@
         <v>102</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>117</v>
@@ -46901,13 +46842,13 @@
         <v>98</v>
       </c>
       <c r="CC218" s="1" t="s">
+        <v>2227</v>
+      </c>
+      <c r="CD218" s="1" t="s">
         <v>2228</v>
       </c>
-      <c r="CD218" s="1" t="s">
+      <c r="CE218" s="1" t="s">
         <v>2229</v>
-      </c>
-      <c r="CE218" s="1" t="s">
-        <v>2230</v>
       </c>
     </row>
     <row r="219" spans="1:83" x14ac:dyDescent="0.25">
@@ -46942,13 +46883,13 @@
         <v>93</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2230</v>
+      </c>
+      <c r="L219" s="1" t="s">
         <v>2231</v>
       </c>
-      <c r="L219" s="1" t="s">
+      <c r="N219" s="1" t="s">
         <v>2232</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2233</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>97</v>
@@ -46977,12 +46918,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2128</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>103</v>
       </c>
@@ -47029,7 +46965,7 @@
         <v>98</v>
       </c>
       <c r="AZ219" s="1" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="BB219" s="1">
         <v>10</v>
@@ -47050,10 +46986,10 @@
         <v>110</v>
       </c>
       <c r="BH219" s="1" t="s">
+        <v>2234</v>
+      </c>
+      <c r="BI219" s="1" t="s">
         <v>2235</v>
-      </c>
-      <c r="BI219" s="1" t="s">
-        <v>2236</v>
       </c>
       <c r="BM219" s="1" t="s">
         <v>113</v>
@@ -47065,13 +47001,13 @@
         <v>114</v>
       </c>
       <c r="BR219" s="1" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="BS219" s="3">
         <v>35950</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>117</v>
@@ -47089,13 +47025,13 @@
         <v>98</v>
       </c>
       <c r="CC219" s="1" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="CD219" s="1" t="s">
         <v>1618</v>
       </c>
       <c r="CE219" s="1" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="220" spans="1:83" x14ac:dyDescent="0.25">
@@ -47130,13 +47066,13 @@
         <v>159</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2240</v>
+      </c>
+      <c r="L220" s="1" t="s">
         <v>2241</v>
       </c>
-      <c r="L220" s="1" t="s">
+      <c r="N220" s="1" t="s">
         <v>2242</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2243</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>97</v>
@@ -47187,7 +47123,7 @@
         <v>0</v>
       </c>
       <c r="AN220" s="1" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="AO220" s="1">
         <v>0</v>
@@ -47232,13 +47168,13 @@
         <v>110</v>
       </c>
       <c r="BH220" s="1" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="BM220" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>117</v>
@@ -47262,10 +47198,10 @@
         <v>2034</v>
       </c>
       <c r="CD220" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="CE220" s="1" t="s">
         <v>2247</v>
-      </c>
-      <c r="CE220" s="1" t="s">
-        <v>2248</v>
       </c>
     </row>
     <row r="221" spans="1:83" x14ac:dyDescent="0.25">
@@ -47300,13 +47236,13 @@
         <v>159</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2248</v>
+      </c>
+      <c r="L221" s="1" t="s">
         <v>2249</v>
       </c>
-      <c r="L221" s="1" t="s">
+      <c r="N221" s="1" t="s">
         <v>2250</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2251</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>97</v>
@@ -47360,7 +47296,7 @@
         <v>0</v>
       </c>
       <c r="AN221" s="1" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="AO221" s="1">
         <v>0</v>
@@ -47405,13 +47341,13 @@
         <v>110</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="BM221" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>117</v>
@@ -47432,13 +47368,13 @@
         <v>98</v>
       </c>
       <c r="CC221" s="1" t="s">
+        <v>2253</v>
+      </c>
+      <c r="CD221" s="1" t="s">
         <v>2254</v>
       </c>
-      <c r="CD221" s="1" t="s">
+      <c r="CE221" s="1" t="s">
         <v>2255</v>
-      </c>
-      <c r="CE221" s="1" t="s">
-        <v>2256</v>
       </c>
     </row>
     <row r="222" spans="1:83" x14ac:dyDescent="0.25">
@@ -47473,13 +47409,13 @@
         <v>159</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="L222" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="L222" s="1" t="s">
+      <c r="N222" s="1" t="s">
         <v>2258</v>
-      </c>
-      <c r="N222" s="1" t="s">
-        <v>2259</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>97</v>
@@ -47533,7 +47469,7 @@
         <v>0</v>
       </c>
       <c r="AN222" s="1" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="AO222" s="1">
         <v>0</v>
@@ -47578,13 +47514,13 @@
         <v>110</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="BM222" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>117</v>
@@ -47605,13 +47541,13 @@
         <v>98</v>
       </c>
       <c r="CC222" s="1" t="s">
+        <v>2261</v>
+      </c>
+      <c r="CD222" s="1" t="s">
         <v>2262</v>
       </c>
-      <c r="CD222" s="1" t="s">
+      <c r="CE222" s="1" t="s">
         <v>2263</v>
-      </c>
-      <c r="CE222" s="1" t="s">
-        <v>2264</v>
       </c>
     </row>
     <row r="223" spans="1:83" x14ac:dyDescent="0.25">
@@ -47646,13 +47582,13 @@
         <v>159</v>
       </c>
       <c r="K223" s="1" t="s">
+        <v>2264</v>
+      </c>
+      <c r="L223" s="1" t="s">
         <v>2265</v>
       </c>
-      <c r="L223" s="1" t="s">
+      <c r="N223" s="1" t="s">
         <v>2266</v>
-      </c>
-      <c r="N223" s="1" t="s">
-        <v>2267</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>97</v>
@@ -47748,13 +47684,13 @@
         <v>110</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="BM223" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>117</v>
@@ -47775,10 +47711,10 @@
         <v>98</v>
       </c>
       <c r="CC223" s="1" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="CD223" s="1" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="CE223" s="1" t="s">
         <v>199</v>
@@ -47816,13 +47752,13 @@
         <v>159</v>
       </c>
       <c r="K224" s="1" t="s">
+        <v>2270</v>
+      </c>
+      <c r="L224" s="1" t="s">
         <v>2271</v>
       </c>
-      <c r="L224" s="1" t="s">
+      <c r="N224" s="1" t="s">
         <v>2272</v>
-      </c>
-      <c r="N224" s="1" t="s">
-        <v>2273</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>97</v>
@@ -47876,7 +47812,7 @@
         <v>0</v>
       </c>
       <c r="AN224" s="1" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="AO224" s="1">
         <v>0</v>
@@ -47921,19 +47857,19 @@
         <v>110</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="BM224" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BW224" s="1" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="BX224" s="1">
         <v>0</v>
@@ -47951,13 +47887,13 @@
         <v>98</v>
       </c>
       <c r="CC224" s="1" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="CD224" s="1" t="s">
         <v>1123</v>
       </c>
       <c r="CE224" s="1" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="225" spans="1:83" x14ac:dyDescent="0.25">
@@ -47992,13 +47928,13 @@
         <v>159</v>
       </c>
       <c r="K225" s="1" t="s">
+        <v>2277</v>
+      </c>
+      <c r="L225" s="1" t="s">
         <v>2278</v>
       </c>
-      <c r="L225" s="1" t="s">
+      <c r="N225" s="1" t="s">
         <v>2279</v>
-      </c>
-      <c r="N225" s="1" t="s">
-        <v>2280</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>97</v>
@@ -48049,7 +47985,7 @@
         <v>0</v>
       </c>
       <c r="AN225" s="1" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="AO225" s="1">
         <v>0</v>
@@ -48094,13 +48030,13 @@
         <v>110</v>
       </c>
       <c r="BH225" s="1" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="BM225" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>117</v>
@@ -48121,13 +48057,13 @@
         <v>98</v>
       </c>
       <c r="CC225" s="1" t="s">
+        <v>2283</v>
+      </c>
+      <c r="CD225" s="1" t="s">
+        <v>2200</v>
+      </c>
+      <c r="CE225" s="1" t="s">
         <v>2284</v>
-      </c>
-      <c r="CD225" s="1" t="s">
-        <v>2201</v>
-      </c>
-      <c r="CE225" s="1" t="s">
-        <v>2285</v>
       </c>
     </row>
     <row r="226" spans="1:83" x14ac:dyDescent="0.25">
@@ -48162,10 +48098,10 @@
         <v>93</v>
       </c>
       <c r="K226" s="1" t="s">
+        <v>2285</v>
+      </c>
+      <c r="L226" s="1" t="s">
         <v>2286</v>
-      </c>
-      <c r="L226" s="1" t="s">
-        <v>2287</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>222</v>
@@ -48231,7 +48167,7 @@
         <v>16</v>
       </c>
       <c r="BD226" s="1" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="BX226" s="1">
         <v>0</v>
@@ -48249,7 +48185,7 @@
         <v>226</v>
       </c>
       <c r="CE226" s="1" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="227" spans="1:83" x14ac:dyDescent="0.25">
@@ -48278,16 +48214,16 @@
         <v>91</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K227" s="1" t="s">
+        <v>2289</v>
+      </c>
+      <c r="L227" s="1" t="s">
         <v>2290</v>
-      </c>
-      <c r="L227" s="1" t="s">
-        <v>2291</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>222</v>
@@ -48356,7 +48292,7 @@
         <v>0</v>
       </c>
       <c r="BZ227" s="1" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="CA227" s="1" t="s">
         <v>119</v>
@@ -48368,7 +48304,7 @@
         <v>226</v>
       </c>
       <c r="CE227" s="1" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="228" spans="1:83" x14ac:dyDescent="0.25">
@@ -48403,13 +48339,13 @@
         <v>93</v>
       </c>
       <c r="K228" s="1" t="s">
+        <v>2292</v>
+      </c>
+      <c r="L228" s="1" t="s">
         <v>2293</v>
       </c>
-      <c r="L228" s="1" t="s">
+      <c r="N228" s="1" t="s">
         <v>2294</v>
-      </c>
-      <c r="N228" s="1" t="s">
-        <v>2295</v>
       </c>
       <c r="O228" s="1" t="s">
         <v>97</v>
@@ -48487,7 +48423,7 @@
         <v>98</v>
       </c>
       <c r="AZ228" s="1" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="BB228" s="1">
         <v>10</v>
@@ -48505,7 +48441,7 @@
         <v>110</v>
       </c>
       <c r="BH228" s="1" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="BM228" s="1" t="s">
         <v>113</v>
@@ -48517,7 +48453,7 @@
         <v>152</v>
       </c>
       <c r="BT228" s="1" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="BU228" s="1" t="s">
         <v>117</v>
@@ -48535,13 +48471,13 @@
         <v>98</v>
       </c>
       <c r="CC228" s="1" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="CD228" s="1" t="s">
         <v>422</v>
       </c>
       <c r="CE228" s="1" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="229" spans="1:83" x14ac:dyDescent="0.25">
@@ -48576,13 +48512,13 @@
         <v>93</v>
       </c>
       <c r="K229" s="1" t="s">
+        <v>2300</v>
+      </c>
+      <c r="L229" s="1" t="s">
         <v>2301</v>
       </c>
-      <c r="L229" s="1" t="s">
+      <c r="N229" s="1" t="s">
         <v>2302</v>
-      </c>
-      <c r="N229" s="1" t="s">
-        <v>2303</v>
       </c>
       <c r="O229" s="1" t="s">
         <v>97</v>
@@ -48657,7 +48593,7 @@
         <v>98</v>
       </c>
       <c r="AZ229" s="1" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="BB229" s="1">
         <v>10</v>
@@ -48675,7 +48611,7 @@
         <v>110</v>
       </c>
       <c r="BH229" s="1" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="BI229" s="1" t="s">
         <v>1744</v>
@@ -48690,13 +48626,13 @@
         <v>211</v>
       </c>
       <c r="BR229" s="1" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="BS229" s="3">
         <v>36099</v>
       </c>
       <c r="BT229" s="1" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="BU229" s="1" t="s">
         <v>117</v>
@@ -48714,13 +48650,13 @@
         <v>98</v>
       </c>
       <c r="CC229" s="1" t="s">
+        <v>2307</v>
+      </c>
+      <c r="CD229" s="1" t="s">
         <v>2308</v>
       </c>
-      <c r="CD229" s="1" t="s">
+      <c r="CE229" s="1" t="s">
         <v>2309</v>
-      </c>
-      <c r="CE229" s="1" t="s">
-        <v>2310</v>
       </c>
     </row>
     <row r="230" spans="1:83" x14ac:dyDescent="0.25">
@@ -48755,13 +48691,13 @@
         <v>93</v>
       </c>
       <c r="K230" s="1" t="s">
+        <v>2310</v>
+      </c>
+      <c r="L230" s="1" t="s">
         <v>2311</v>
       </c>
-      <c r="L230" s="1" t="s">
+      <c r="N230" s="1" t="s">
         <v>2312</v>
-      </c>
-      <c r="N230" s="1" t="s">
-        <v>2313</v>
       </c>
       <c r="O230" s="1" t="s">
         <v>97</v>
@@ -48836,7 +48772,7 @@
         <v>98</v>
       </c>
       <c r="AZ230" s="1" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="BB230" s="1">
         <v>10</v>
@@ -48854,10 +48790,10 @@
         <v>110</v>
       </c>
       <c r="BH230" s="1" t="s">
+        <v>2314</v>
+      </c>
+      <c r="BI230" s="1" t="s">
         <v>2315</v>
-      </c>
-      <c r="BI230" s="1" t="s">
-        <v>2316</v>
       </c>
       <c r="BM230" s="1" t="s">
         <v>113</v>
@@ -48869,13 +48805,13 @@
         <v>99</v>
       </c>
       <c r="BR230" s="1" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="BS230" s="3">
         <v>37735</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>117</v>
@@ -48893,13 +48829,13 @@
         <v>98</v>
       </c>
       <c r="CC230" s="1" t="s">
+        <v>2318</v>
+      </c>
+      <c r="CD230" s="1" t="s">
         <v>2319</v>
       </c>
-      <c r="CD230" s="1" t="s">
+      <c r="CE230" s="1" t="s">
         <v>2320</v>
-      </c>
-      <c r="CE230" s="1" t="s">
-        <v>2321</v>
       </c>
     </row>
     <row r="231" spans="1:83" x14ac:dyDescent="0.25">
@@ -48934,13 +48870,13 @@
         <v>93</v>
       </c>
       <c r="K231" s="1" t="s">
+        <v>2321</v>
+      </c>
+      <c r="L231" s="1" t="s">
         <v>2322</v>
       </c>
-      <c r="L231" s="1" t="s">
+      <c r="N231" s="1" t="s">
         <v>2323</v>
-      </c>
-      <c r="N231" s="1" t="s">
-        <v>2324</v>
       </c>
       <c r="O231" s="1" t="s">
         <v>97</v>
@@ -49018,7 +48954,7 @@
         <v>98</v>
       </c>
       <c r="AZ231" s="1" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="BB231" s="1">
         <v>10</v>
@@ -49036,7 +48972,7 @@
         <v>110</v>
       </c>
       <c r="BH231" s="1" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="BI231" s="1" t="s">
         <v>1017</v>
@@ -49048,7 +48984,7 @@
         <v>102</v>
       </c>
       <c r="BT231" s="1" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="BU231" s="1" t="s">
         <v>117</v>
@@ -49066,13 +49002,13 @@
         <v>98</v>
       </c>
       <c r="CC231" s="1" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="CD231" s="1" t="s">
         <v>802</v>
       </c>
       <c r="CE231" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="232" spans="1:83" x14ac:dyDescent="0.25">
@@ -49107,13 +49043,13 @@
         <v>93</v>
       </c>
       <c r="K232" s="1" t="s">
+        <v>2329</v>
+      </c>
+      <c r="L232" s="1" t="s">
         <v>2330</v>
       </c>
-      <c r="L232" s="1" t="s">
+      <c r="N232" s="1" t="s">
         <v>2331</v>
-      </c>
-      <c r="N232" s="1" t="s">
-        <v>2332</v>
       </c>
       <c r="O232" s="1" t="s">
         <v>97</v>
@@ -49146,7 +49082,7 @@
         <v>103</v>
       </c>
       <c r="AG232" s="1" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="AH232" s="1" t="s">
         <v>1712</v>
@@ -49191,7 +49127,7 @@
         <v>98</v>
       </c>
       <c r="AZ232" s="1" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="BB232" s="1">
         <v>10</v>
@@ -49209,7 +49145,7 @@
         <v>110</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="BI232" s="1" t="s">
         <v>1651</v>
@@ -49221,7 +49157,7 @@
         <v>102</v>
       </c>
       <c r="BT232" s="1" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="BU232" s="1" t="s">
         <v>117</v>
@@ -49242,10 +49178,10 @@
         <v>1439</v>
       </c>
       <c r="CD232" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="CE232" s="1" t="s">
         <v>2337</v>
-      </c>
-      <c r="CE232" s="1" t="s">
-        <v>2338</v>
       </c>
     </row>
     <row r="233" spans="1:83" x14ac:dyDescent="0.25">
@@ -49280,13 +49216,13 @@
         <v>93</v>
       </c>
       <c r="K233" s="1" t="s">
+        <v>2338</v>
+      </c>
+      <c r="L233" s="1" t="s">
         <v>2339</v>
       </c>
-      <c r="L233" s="1" t="s">
+      <c r="N233" s="1" t="s">
         <v>2340</v>
-      </c>
-      <c r="N233" s="1" t="s">
-        <v>2341</v>
       </c>
       <c r="O233" s="1" t="s">
         <v>97</v>
@@ -49364,7 +49300,7 @@
         <v>98</v>
       </c>
       <c r="AZ233" s="1" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="BB233" s="1">
         <v>10</v>
@@ -49382,7 +49318,7 @@
         <v>110</v>
       </c>
       <c r="BH233" s="1" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="BI233" s="1" t="s">
         <v>1774</v>
@@ -49394,7 +49330,7 @@
         <v>102</v>
       </c>
       <c r="BT233" s="1" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="BU233" s="1" t="s">
         <v>117</v>
@@ -49418,7 +49354,7 @@
         <v>874</v>
       </c>
       <c r="CE233" s="1" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="234" spans="1:83" x14ac:dyDescent="0.25">
@@ -49453,13 +49389,13 @@
         <v>93</v>
       </c>
       <c r="K234" s="1" t="s">
+        <v>2345</v>
+      </c>
+      <c r="L234" s="1" t="s">
         <v>2346</v>
       </c>
-      <c r="L234" s="1" t="s">
+      <c r="N234" s="1" t="s">
         <v>2347</v>
-      </c>
-      <c r="N234" s="1" t="s">
-        <v>2348</v>
       </c>
       <c r="O234" s="1" t="s">
         <v>97</v>
@@ -49537,7 +49473,7 @@
         <v>98</v>
       </c>
       <c r="AZ234" s="1" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="BB234" s="1">
         <v>10</v>
@@ -49555,7 +49491,7 @@
         <v>110</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="BI234" s="1" t="s">
         <v>2083</v>
@@ -49567,7 +49503,7 @@
         <v>102</v>
       </c>
       <c r="BT234" s="1" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="BU234" s="1" t="s">
         <v>117</v>
@@ -49585,13 +49521,13 @@
         <v>98</v>
       </c>
       <c r="CC234" s="1" t="s">
+        <v>2351</v>
+      </c>
+      <c r="CD234" s="1" t="s">
         <v>2352</v>
       </c>
-      <c r="CD234" s="1" t="s">
+      <c r="CE234" s="1" t="s">
         <v>2353</v>
-      </c>
-      <c r="CE234" s="1" t="s">
-        <v>2354</v>
       </c>
     </row>
     <row r="235" spans="1:83" x14ac:dyDescent="0.25">
@@ -49626,13 +49562,13 @@
         <v>159</v>
       </c>
       <c r="K235" s="1" t="s">
+        <v>2354</v>
+      </c>
+      <c r="L235" s="1" t="s">
         <v>2355</v>
       </c>
-      <c r="L235" s="1" t="s">
+      <c r="N235" s="1" t="s">
         <v>2356</v>
-      </c>
-      <c r="N235" s="1" t="s">
-        <v>2357</v>
       </c>
       <c r="O235" s="1" t="s">
         <v>97</v>
@@ -49674,7 +49610,7 @@
         <v>0</v>
       </c>
       <c r="AN235" s="1" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="AO235" s="1">
         <v>0</v>
@@ -49713,13 +49649,13 @@
         <v>110</v>
       </c>
       <c r="BH235" s="1" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="BM235" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT235" s="1" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="BU235" s="1" t="s">
         <v>117</v>
@@ -49737,13 +49673,13 @@
         <v>98</v>
       </c>
       <c r="CC235" s="1" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="CD235" s="1" t="s">
         <v>294</v>
       </c>
       <c r="CE235" s="1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="236" spans="1:83" x14ac:dyDescent="0.25">
@@ -49778,13 +49714,13 @@
         <v>93</v>
       </c>
       <c r="K236" s="1" t="s">
+        <v>2362</v>
+      </c>
+      <c r="L236" s="1" t="s">
         <v>2363</v>
       </c>
-      <c r="L236" s="1" t="s">
+      <c r="N236" s="1" t="s">
         <v>2364</v>
-      </c>
-      <c r="N236" s="1" t="s">
-        <v>2365</v>
       </c>
       <c r="O236" s="1" t="s">
         <v>97</v>
@@ -49823,7 +49759,7 @@
         <v>42247</v>
       </c>
       <c r="AD236" s="1" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="AF236" s="1" t="s">
         <v>103</v>
@@ -49877,7 +49813,7 @@
         <v>18</v>
       </c>
       <c r="BD236" s="1" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="BE236" s="1" t="s">
         <v>108</v>
@@ -49889,10 +49825,10 @@
         <v>110</v>
       </c>
       <c r="BH236" s="1" t="s">
+        <v>2366</v>
+      </c>
+      <c r="BI236" s="1" t="s">
         <v>2367</v>
-      </c>
-      <c r="BI236" s="1" t="s">
-        <v>2368</v>
       </c>
       <c r="BM236" s="1" t="s">
         <v>113</v>
@@ -49904,13 +49840,13 @@
         <v>211</v>
       </c>
       <c r="BR236" s="1" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="BS236" s="3">
         <v>36580</v>
       </c>
       <c r="BT236" s="1" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="BU236" s="1" t="s">
         <v>117</v>
@@ -49931,7 +49867,7 @@
         <v>98</v>
       </c>
       <c r="CC236" s="1" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="CD236" s="1" t="s">
         <v>284</v>
@@ -49972,13 +49908,13 @@
         <v>93</v>
       </c>
       <c r="K237" s="1" t="s">
+        <v>2371</v>
+      </c>
+      <c r="L237" s="1" t="s">
         <v>2372</v>
       </c>
-      <c r="L237" s="1" t="s">
+      <c r="N237" s="1" t="s">
         <v>2373</v>
-      </c>
-      <c r="N237" s="1" t="s">
-        <v>2374</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>97</v>
@@ -50071,10 +50007,10 @@
         <v>110</v>
       </c>
       <c r="BH237" s="1" t="s">
+        <v>2374</v>
+      </c>
+      <c r="BI237" s="1" t="s">
         <v>2375</v>
-      </c>
-      <c r="BI237" s="1" t="s">
-        <v>2376</v>
       </c>
       <c r="BM237" s="1" t="s">
         <v>113</v>
@@ -50086,13 +50022,13 @@
         <v>114</v>
       </c>
       <c r="BR237" s="1" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="BS237" s="3">
         <v>37747</v>
       </c>
       <c r="BT237" s="1" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="BU237" s="1" t="s">
         <v>117</v>
@@ -50116,7 +50052,7 @@
         <v>628</v>
       </c>
       <c r="CE237" s="1" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="238" spans="1:83" x14ac:dyDescent="0.25">
@@ -50151,13 +50087,13 @@
         <v>93</v>
       </c>
       <c r="K238" s="1" t="s">
+        <v>2379</v>
+      </c>
+      <c r="L238" s="1" t="s">
         <v>2380</v>
       </c>
-      <c r="L238" s="1" t="s">
+      <c r="N238" s="1" t="s">
         <v>2381</v>
-      </c>
-      <c r="N238" s="1" t="s">
-        <v>2382</v>
       </c>
       <c r="O238" s="1" t="s">
         <v>97</v>
@@ -50250,7 +50186,7 @@
         <v>110</v>
       </c>
       <c r="BH238" s="1" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="BM238" s="1" t="s">
         <v>113</v>
@@ -50259,7 +50195,7 @@
         <v>102</v>
       </c>
       <c r="BT238" s="1" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="BU238" s="1" t="s">
         <v>117</v>
@@ -50277,13 +50213,13 @@
         <v>98</v>
       </c>
       <c r="CC238" s="1" t="s">
+        <v>2384</v>
+      </c>
+      <c r="CD238" s="1" t="s">
         <v>2385</v>
       </c>
-      <c r="CD238" s="1" t="s">
+      <c r="CE238" s="1" t="s">
         <v>2386</v>
-      </c>
-      <c r="CE238" s="1" t="s">
-        <v>2387</v>
       </c>
     </row>
     <row r="239" spans="1:83" x14ac:dyDescent="0.25">
@@ -50318,13 +50254,13 @@
         <v>93</v>
       </c>
       <c r="K239" s="1" t="s">
+        <v>2387</v>
+      </c>
+      <c r="L239" s="1" t="s">
         <v>2388</v>
       </c>
-      <c r="L239" s="1" t="s">
+      <c r="N239" s="1" t="s">
         <v>2389</v>
-      </c>
-      <c r="N239" s="1" t="s">
-        <v>2390</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>97</v>
@@ -50417,7 +50353,7 @@
         <v>110</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="BI239" s="1" t="s">
         <v>850</v>
@@ -50429,7 +50365,7 @@
         <v>102</v>
       </c>
       <c r="BT239" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="BU239" s="1" t="s">
         <v>117</v>
@@ -50447,13 +50383,13 @@
         <v>98</v>
       </c>
       <c r="CC239" s="1" t="s">
+        <v>2392</v>
+      </c>
+      <c r="CD239" s="1" t="s">
         <v>2393</v>
       </c>
-      <c r="CD239" s="1" t="s">
+      <c r="CE239" s="1" t="s">
         <v>2394</v>
-      </c>
-      <c r="CE239" s="1" t="s">
-        <v>2395</v>
       </c>
     </row>
     <row r="240" spans="1:83" x14ac:dyDescent="0.25">
@@ -50488,13 +50424,13 @@
         <v>93</v>
       </c>
       <c r="K240" s="1" t="s">
+        <v>2395</v>
+      </c>
+      <c r="L240" s="1" t="s">
         <v>2396</v>
       </c>
-      <c r="L240" s="1" t="s">
+      <c r="N240" s="1" t="s">
         <v>2397</v>
-      </c>
-      <c r="N240" s="1" t="s">
-        <v>2398</v>
       </c>
       <c r="O240" s="1" t="s">
         <v>97</v>
@@ -50587,10 +50523,10 @@
         <v>110</v>
       </c>
       <c r="BH240" s="1" t="s">
+        <v>2398</v>
+      </c>
+      <c r="BI240" s="1" t="s">
         <v>2399</v>
-      </c>
-      <c r="BI240" s="1" t="s">
-        <v>2400</v>
       </c>
       <c r="BM240" s="1" t="s">
         <v>113</v>
@@ -50602,13 +50538,13 @@
         <v>99</v>
       </c>
       <c r="BR240" s="1" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="BS240" s="3">
         <v>37334</v>
       </c>
       <c r="BT240" s="1" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="BU240" s="1" t="s">
         <v>117</v>
@@ -50629,10 +50565,10 @@
         <v>507</v>
       </c>
       <c r="CD240" s="1" t="s">
+        <v>2402</v>
+      </c>
+      <c r="CE240" s="1" t="s">
         <v>2403</v>
-      </c>
-      <c r="CE240" s="1" t="s">
-        <v>2404</v>
       </c>
     </row>
     <row r="241" spans="1:83" x14ac:dyDescent="0.25">
@@ -50667,13 +50603,13 @@
         <v>93</v>
       </c>
       <c r="K241" s="1" t="s">
+        <v>2404</v>
+      </c>
+      <c r="L241" s="1" t="s">
         <v>2405</v>
       </c>
-      <c r="L241" s="1" t="s">
+      <c r="N241" s="1" t="s">
         <v>2406</v>
-      </c>
-      <c r="N241" s="1" t="s">
-        <v>2407</v>
       </c>
       <c r="O241" s="1" t="s">
         <v>97</v>
@@ -50766,10 +50702,10 @@
         <v>110</v>
       </c>
       <c r="BH241" s="1" t="s">
+        <v>2407</v>
+      </c>
+      <c r="BI241" s="1" t="s">
         <v>2408</v>
-      </c>
-      <c r="BI241" s="1" t="s">
-        <v>2409</v>
       </c>
       <c r="BM241" s="1" t="s">
         <v>113</v>
@@ -50781,13 +50717,13 @@
         <v>99</v>
       </c>
       <c r="BR241" s="1" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="BS241" s="3">
         <v>37904</v>
       </c>
       <c r="BT241" s="1" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="BU241" s="1" t="s">
         <v>117</v>
@@ -50808,10 +50744,10 @@
         <v>874</v>
       </c>
       <c r="CD241" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="CE241" s="1" t="s">
         <v>2412</v>
-      </c>
-      <c r="CE241" s="1" t="s">
-        <v>2413</v>
       </c>
     </row>
     <row r="242" spans="1:83" x14ac:dyDescent="0.25">
@@ -50846,13 +50782,13 @@
         <v>93</v>
       </c>
       <c r="K242" s="1" t="s">
+        <v>2413</v>
+      </c>
+      <c r="L242" s="1" t="s">
         <v>2414</v>
       </c>
-      <c r="L242" s="1" t="s">
+      <c r="N242" s="1" t="s">
         <v>2415</v>
-      </c>
-      <c r="N242" s="1" t="s">
-        <v>2416</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>97</v>
@@ -50942,7 +50878,7 @@
         <v>110</v>
       </c>
       <c r="BH242" s="1" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="BM242" s="1" t="s">
         <v>113</v>
@@ -50954,13 +50890,13 @@
         <v>114</v>
       </c>
       <c r="BR242" s="1" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="BS242" s="3">
         <v>36111</v>
       </c>
       <c r="BT242" s="1" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="BU242" s="1" t="s">
         <v>117</v>
@@ -50978,13 +50914,13 @@
         <v>98</v>
       </c>
       <c r="CC242" s="1" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="CD242" s="1" t="s">
         <v>1030</v>
       </c>
       <c r="CE242" s="1" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="243" spans="1:83" x14ac:dyDescent="0.25">
@@ -51019,13 +50955,13 @@
         <v>93</v>
       </c>
       <c r="K243" s="1" t="s">
+        <v>2421</v>
+      </c>
+      <c r="L243" s="1" t="s">
         <v>2422</v>
       </c>
-      <c r="L243" s="1" t="s">
+      <c r="N243" s="1" t="s">
         <v>2423</v>
-      </c>
-      <c r="N243" s="1" t="s">
-        <v>2424</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>97</v>
@@ -51118,7 +51054,7 @@
         <v>110</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="BI243" s="1" t="s">
         <v>379</v>
@@ -51133,13 +51069,13 @@
         <v>114</v>
       </c>
       <c r="BR243" s="1" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="BS243" s="3">
         <v>37785</v>
       </c>
       <c r="BT243" s="1" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="BU243" s="1" t="s">
         <v>117</v>
@@ -51157,13 +51093,13 @@
         <v>98</v>
       </c>
       <c r="CC243" s="1" t="s">
+        <v>2427</v>
+      </c>
+      <c r="CD243" s="1" t="s">
         <v>2428</v>
       </c>
-      <c r="CD243" s="1" t="s">
+      <c r="CE243" s="1" t="s">
         <v>2429</v>
-      </c>
-      <c r="CE243" s="1" t="s">
-        <v>2430</v>
       </c>
     </row>
     <row r="244" spans="1:83" x14ac:dyDescent="0.25">
@@ -51198,13 +51134,13 @@
         <v>93</v>
       </c>
       <c r="K244" s="1" t="s">
+        <v>2430</v>
+      </c>
+      <c r="L244" s="1" t="s">
         <v>2431</v>
       </c>
-      <c r="L244" s="1" t="s">
+      <c r="N244" s="1" t="s">
         <v>2432</v>
-      </c>
-      <c r="N244" s="1" t="s">
-        <v>2433</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>97</v>
@@ -51297,7 +51233,7 @@
         <v>110</v>
       </c>
       <c r="BH244" s="1" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="BM244" s="1" t="s">
         <v>113</v>
@@ -51306,7 +51242,7 @@
         <v>102</v>
       </c>
       <c r="BT244" s="1" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="BU244" s="1" t="s">
         <v>117</v>
@@ -51327,10 +51263,10 @@
         <v>1139</v>
       </c>
       <c r="CD244" s="1" t="s">
+        <v>2435</v>
+      </c>
+      <c r="CE244" s="1" t="s">
         <v>2436</v>
-      </c>
-      <c r="CE244" s="1" t="s">
-        <v>2437</v>
       </c>
     </row>
     <row r="245" spans="1:83" x14ac:dyDescent="0.25">
@@ -51365,13 +51301,13 @@
         <v>93</v>
       </c>
       <c r="K245" s="1" t="s">
+        <v>2437</v>
+      </c>
+      <c r="L245" s="1" t="s">
         <v>2438</v>
       </c>
-      <c r="L245" s="1" t="s">
+      <c r="N245" s="1" t="s">
         <v>2439</v>
-      </c>
-      <c r="N245" s="1" t="s">
-        <v>2440</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>97</v>
@@ -51449,7 +51385,7 @@
         <v>98</v>
       </c>
       <c r="AZ245" s="1" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="BB245" s="1">
         <v>10</v>
@@ -51467,7 +51403,7 @@
         <v>110</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="BM245" s="1" t="s">
         <v>113</v>
@@ -51476,7 +51412,7 @@
         <v>102</v>
       </c>
       <c r="BT245" s="1" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="BU245" s="1" t="s">
         <v>117</v>
@@ -51494,13 +51430,13 @@
         <v>98</v>
       </c>
       <c r="CC245" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="CD245" s="1" t="s">
         <v>2444</v>
       </c>
-      <c r="CD245" s="1" t="s">
+      <c r="CE245" s="1" t="s">
         <v>2445</v>
-      </c>
-      <c r="CE245" s="1" t="s">
-        <v>2446</v>
       </c>
     </row>
     <row r="246" spans="1:83" x14ac:dyDescent="0.25">
@@ -51535,13 +51471,13 @@
         <v>93</v>
       </c>
       <c r="K246" s="1" t="s">
+        <v>2446</v>
+      </c>
+      <c r="L246" s="1" t="s">
         <v>2447</v>
       </c>
-      <c r="L246" s="1" t="s">
+      <c r="N246" s="1" t="s">
         <v>2448</v>
-      </c>
-      <c r="N246" s="1" t="s">
-        <v>2449</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>97</v>
@@ -51619,7 +51555,7 @@
         <v>98</v>
       </c>
       <c r="AZ246" s="1" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="BB246" s="1">
         <v>10</v>
@@ -51637,7 +51573,7 @@
         <v>110</v>
       </c>
       <c r="BH246" s="1" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="BI246" s="1" t="s">
         <v>1651</v>
@@ -51649,7 +51585,7 @@
         <v>102</v>
       </c>
       <c r="BT246" s="1" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BU246" s="1" t="s">
         <v>117</v>
@@ -51667,13 +51603,13 @@
         <v>98</v>
       </c>
       <c r="CC246" s="1" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="CD246" s="1" t="s">
         <v>1010</v>
       </c>
       <c r="CE246" s="1" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="247" spans="1:83" x14ac:dyDescent="0.25">
@@ -51708,13 +51644,13 @@
         <v>93</v>
       </c>
       <c r="K247" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="L247" s="1" t="s">
         <v>2454</v>
       </c>
-      <c r="L247" s="1" t="s">
+      <c r="N247" s="1" t="s">
         <v>2455</v>
-      </c>
-      <c r="N247" s="1" t="s">
-        <v>2456</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>97</v>
@@ -51792,7 +51728,7 @@
         <v>98</v>
       </c>
       <c r="AZ247" s="1" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="BB247" s="1">
         <v>10</v>
@@ -51810,7 +51746,7 @@
         <v>110</v>
       </c>
       <c r="BH247" s="1" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="BM247" s="1" t="s">
         <v>113</v>
@@ -51819,7 +51755,7 @@
         <v>102</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>117</v>
@@ -51840,10 +51776,10 @@
         <v>1010</v>
       </c>
       <c r="CD247" s="1" t="s">
+        <v>2459</v>
+      </c>
+      <c r="CE247" s="1" t="s">
         <v>2460</v>
-      </c>
-      <c r="CE247" s="1" t="s">
-        <v>2461</v>
       </c>
     </row>
     <row r="248" spans="1:83" x14ac:dyDescent="0.25">
@@ -51878,13 +51814,13 @@
         <v>93</v>
       </c>
       <c r="K248" s="1" t="s">
+        <v>2461</v>
+      </c>
+      <c r="L248" s="1" t="s">
         <v>2462</v>
       </c>
-      <c r="L248" s="1" t="s">
+      <c r="N248" s="1" t="s">
         <v>2463</v>
-      </c>
-      <c r="N248" s="1" t="s">
-        <v>2464</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>97</v>
@@ -51959,7 +51895,7 @@
         <v>98</v>
       </c>
       <c r="AZ248" s="1" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="BB248" s="1">
         <v>10</v>
@@ -51980,10 +51916,10 @@
         <v>110</v>
       </c>
       <c r="BH248" s="1" t="s">
+        <v>2465</v>
+      </c>
+      <c r="BI248" s="1" t="s">
         <v>2466</v>
-      </c>
-      <c r="BI248" s="1" t="s">
-        <v>2467</v>
       </c>
       <c r="BM248" s="1" t="s">
         <v>113</v>
@@ -51995,13 +51931,13 @@
         <v>211</v>
       </c>
       <c r="BR248" s="1" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="BS248" s="3">
         <v>37513</v>
       </c>
       <c r="BT248" s="1" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="BU248" s="1" t="s">
         <v>117</v>
@@ -52019,13 +51955,13 @@
         <v>98</v>
       </c>
       <c r="CC248" s="1" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="CD248" s="1" t="s">
         <v>121</v>
       </c>
       <c r="CE248" s="1" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="249" spans="1:83" x14ac:dyDescent="0.25">
@@ -52060,13 +51996,13 @@
         <v>93</v>
       </c>
       <c r="K249" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="L249" s="1" t="s">
         <v>2472</v>
       </c>
-      <c r="L249" s="1" t="s">
+      <c r="N249" s="1" t="s">
         <v>2473</v>
-      </c>
-      <c r="N249" s="1" t="s">
-        <v>2474</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>97</v>
@@ -52156,10 +52092,10 @@
         <v>110</v>
       </c>
       <c r="BH249" s="1" t="s">
+        <v>2474</v>
+      </c>
+      <c r="BI249" s="1" t="s">
         <v>2475</v>
-      </c>
-      <c r="BI249" s="1" t="s">
-        <v>2476</v>
       </c>
       <c r="BM249" s="1" t="s">
         <v>113</v>
@@ -52171,13 +52107,13 @@
         <v>99</v>
       </c>
       <c r="BR249" s="1" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="BS249" s="3">
         <v>41024</v>
       </c>
       <c r="BT249" s="1" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="BU249" s="1" t="s">
         <v>117</v>
@@ -52195,13 +52131,13 @@
         <v>98</v>
       </c>
       <c r="CC249" s="1" t="s">
+        <v>2478</v>
+      </c>
+      <c r="CD249" s="1" t="s">
         <v>2479</v>
       </c>
-      <c r="CD249" s="1" t="s">
+      <c r="CE249" s="1" t="s">
         <v>2480</v>
-      </c>
-      <c r="CE249" s="1" t="s">
-        <v>2481</v>
       </c>
     </row>
     <row r="250" spans="1:83" x14ac:dyDescent="0.25">
@@ -52236,13 +52172,13 @@
         <v>93</v>
       </c>
       <c r="K250" s="1" t="s">
+        <v>2481</v>
+      </c>
+      <c r="L250" s="1" t="s">
         <v>2482</v>
       </c>
-      <c r="L250" s="1" t="s">
+      <c r="N250" s="1" t="s">
         <v>2483</v>
-      </c>
-      <c r="N250" s="1" t="s">
-        <v>2484</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>97</v>
@@ -52275,7 +52211,7 @@
         <v>103</v>
       </c>
       <c r="AG250" s="1" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="AH250" s="1" t="s">
         <v>1712</v>
@@ -52299,28 +52235,28 @@
         <v>97</v>
       </c>
       <c r="AQ250" s="1" t="s">
+        <v>2484</v>
+      </c>
+      <c r="AR250" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS250" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT250" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU250" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV250" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY250" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ250" s="1" t="s">
         <v>2485</v>
-      </c>
-      <c r="AR250" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS250" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT250" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU250" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV250" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY250" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AZ250" s="1" t="s">
-        <v>2486</v>
       </c>
       <c r="BB250" s="1">
         <v>10</v>
@@ -52338,7 +52274,7 @@
         <v>110</v>
       </c>
       <c r="BH250" s="1" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="BI250" s="1" t="s">
         <v>1017</v>
@@ -52353,13 +52289,13 @@
         <v>114</v>
       </c>
       <c r="BR250" s="1" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="BS250" s="3">
         <v>34808</v>
       </c>
       <c r="BT250" s="1" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="BU250" s="1" t="s">
         <v>117</v>
@@ -52377,13 +52313,13 @@
         <v>98</v>
       </c>
       <c r="CC250" s="1" t="s">
+        <v>2489</v>
+      </c>
+      <c r="CD250" s="1" t="s">
         <v>2490</v>
       </c>
-      <c r="CD250" s="1" t="s">
+      <c r="CE250" s="1" t="s">
         <v>2491</v>
-      </c>
-      <c r="CE250" s="1" t="s">
-        <v>2492</v>
       </c>
     </row>
     <row r="251" spans="1:83" x14ac:dyDescent="0.25">
@@ -52418,13 +52354,13 @@
         <v>93</v>
       </c>
       <c r="K251" s="1" t="s">
+        <v>2492</v>
+      </c>
+      <c r="L251" s="1" t="s">
         <v>2493</v>
       </c>
-      <c r="L251" s="1" t="s">
+      <c r="N251" s="1" t="s">
         <v>2494</v>
-      </c>
-      <c r="N251" s="1" t="s">
-        <v>2495</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>97</v>
@@ -52499,7 +52435,7 @@
         <v>98</v>
       </c>
       <c r="AZ251" s="1" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="BB251" s="1">
         <v>10</v>
@@ -52517,10 +52453,10 @@
         <v>110</v>
       </c>
       <c r="BH251" s="1" t="s">
+        <v>2496</v>
+      </c>
+      <c r="BI251" s="1" t="s">
         <v>2497</v>
-      </c>
-      <c r="BI251" s="1" t="s">
-        <v>2498</v>
       </c>
       <c r="BM251" s="1" t="s">
         <v>113</v>
@@ -52532,13 +52468,13 @@
         <v>99</v>
       </c>
       <c r="BR251" s="1" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="BS251" s="3">
         <v>37336</v>
       </c>
       <c r="BT251" s="1" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="BU251" s="1" t="s">
         <v>117</v>
@@ -52556,13 +52492,13 @@
         <v>98</v>
       </c>
       <c r="CC251" s="1" t="s">
+        <v>2500</v>
+      </c>
+      <c r="CD251" s="1" t="s">
         <v>2501</v>
       </c>
-      <c r="CD251" s="1" t="s">
+      <c r="CE251" s="1" t="s">
         <v>2502</v>
-      </c>
-      <c r="CE251" s="1" t="s">
-        <v>2503</v>
       </c>
     </row>
     <row r="252" spans="1:83" x14ac:dyDescent="0.25">
@@ -52597,13 +52533,13 @@
         <v>93</v>
       </c>
       <c r="K252" s="1" t="s">
+        <v>2503</v>
+      </c>
+      <c r="L252" s="1" t="s">
         <v>2504</v>
       </c>
-      <c r="L252" s="1" t="s">
+      <c r="N252" s="1" t="s">
         <v>2505</v>
-      </c>
-      <c r="N252" s="1" t="s">
-        <v>2506</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>97</v>
@@ -52681,7 +52617,7 @@
         <v>98</v>
       </c>
       <c r="AZ252" s="1" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="BB252" s="1">
         <v>10</v>
@@ -52699,7 +52635,7 @@
         <v>110</v>
       </c>
       <c r="BH252" s="1" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="BI252" s="1" t="s">
         <v>563</v>
@@ -52711,7 +52647,7 @@
         <v>102</v>
       </c>
       <c r="BT252" s="1" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="BU252" s="1" t="s">
         <v>117</v>
@@ -52729,13 +52665,13 @@
         <v>98</v>
       </c>
       <c r="CC252" s="1" t="s">
+        <v>2509</v>
+      </c>
+      <c r="CD252" s="1" t="s">
         <v>2510</v>
       </c>
-      <c r="CD252" s="1" t="s">
+      <c r="CE252" s="1" t="s">
         <v>2511</v>
-      </c>
-      <c r="CE252" s="1" t="s">
-        <v>2512</v>
       </c>
     </row>
     <row r="253" spans="1:83" x14ac:dyDescent="0.25">
@@ -52770,13 +52706,13 @@
         <v>93</v>
       </c>
       <c r="K253" s="1" t="s">
+        <v>2512</v>
+      </c>
+      <c r="L253" s="1" t="s">
         <v>2513</v>
       </c>
-      <c r="L253" s="1" t="s">
+      <c r="N253" s="1" t="s">
         <v>2514</v>
-      </c>
-      <c r="N253" s="1" t="s">
-        <v>2515</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>97</v>
@@ -52869,7 +52805,7 @@
         <v>110</v>
       </c>
       <c r="BH253" s="1" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="BM253" s="1" t="s">
         <v>113</v>
@@ -52878,7 +52814,7 @@
         <v>102</v>
       </c>
       <c r="BT253" s="1" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="BU253" s="1" t="s">
         <v>117</v>
@@ -52896,13 +52832,13 @@
         <v>98</v>
       </c>
       <c r="CC253" s="1" t="s">
+        <v>2517</v>
+      </c>
+      <c r="CD253" s="1" t="s">
         <v>2518</v>
       </c>
-      <c r="CD253" s="1" t="s">
+      <c r="CE253" s="1" t="s">
         <v>2519</v>
-      </c>
-      <c r="CE253" s="1" t="s">
-        <v>2520</v>
       </c>
     </row>
     <row r="254" spans="1:83" x14ac:dyDescent="0.25">
@@ -52937,13 +52873,13 @@
         <v>159</v>
       </c>
       <c r="K254" s="1" t="s">
+        <v>2520</v>
+      </c>
+      <c r="L254" s="1" t="s">
         <v>2521</v>
       </c>
-      <c r="L254" s="1" t="s">
+      <c r="N254" s="1" t="s">
         <v>2522</v>
-      </c>
-      <c r="N254" s="1" t="s">
-        <v>2523</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>97</v>
@@ -53036,13 +52972,13 @@
         <v>110</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="BM254" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT254" s="1" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="BU254" s="1" t="s">
         <v>117</v>
@@ -53060,13 +52996,13 @@
         <v>98</v>
       </c>
       <c r="CC254" s="1" t="s">
+        <v>2525</v>
+      </c>
+      <c r="CD254" s="1" t="s">
         <v>2526</v>
       </c>
-      <c r="CD254" s="1" t="s">
+      <c r="CE254" s="1" t="s">
         <v>2527</v>
-      </c>
-      <c r="CE254" s="1" t="s">
-        <v>2528</v>
       </c>
     </row>
     <row r="255" spans="1:83" x14ac:dyDescent="0.25">
@@ -53095,7 +53031,7 @@
         <v>91</v>
       </c>
       <c r="I255" s="1" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>93</v>
@@ -53104,10 +53040,10 @@
         <v>245</v>
       </c>
       <c r="L255" s="1" t="s">
+        <v>2529</v>
+      </c>
+      <c r="M255" s="1" t="s">
         <v>2530</v>
-      </c>
-      <c r="M255" s="1" t="s">
-        <v>2531</v>
       </c>
       <c r="N255" s="1" t="s">
         <v>247</v>
@@ -53137,7 +53073,7 @@
         <v>42582</v>
       </c>
       <c r="AD255" s="1" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="AF255" s="1" t="s">
         <v>103</v>
@@ -53188,10 +53124,10 @@
         <v>248</v>
       </c>
       <c r="BH255" s="1" t="s">
+        <v>2532</v>
+      </c>
+      <c r="BI255" s="1" t="s">
         <v>2533</v>
-      </c>
-      <c r="BI255" s="1" t="s">
-        <v>2534</v>
       </c>
       <c r="BM255" s="1" t="s">
         <v>113</v>
@@ -53247,7 +53183,7 @@
         <v>123</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>89</v>
@@ -53265,16 +53201,16 @@
         <v>93</v>
       </c>
       <c r="K256" s="1" t="s">
+        <v>2535</v>
+      </c>
+      <c r="L256" s="1" t="s">
         <v>2536</v>
       </c>
-      <c r="L256" s="1" t="s">
+      <c r="M256" s="1" t="s">
+        <v>2530</v>
+      </c>
+      <c r="N256" s="1" t="s">
         <v>2537</v>
-      </c>
-      <c r="M256" s="1" t="s">
-        <v>2531</v>
-      </c>
-      <c r="N256" s="1" t="s">
-        <v>2538</v>
       </c>
       <c r="Q256" s="3">
         <v>17060</v>
@@ -53307,7 +53243,7 @@
         <v>42628</v>
       </c>
       <c r="AD256" s="1" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="AF256" s="1" t="s">
         <v>103</v>
@@ -53358,16 +53294,16 @@
         <v>98</v>
       </c>
       <c r="AZ256" s="1" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="BD256" s="1" t="s">
         <v>224</v>
       </c>
       <c r="BH256" s="1" t="s">
+        <v>2540</v>
+      </c>
+      <c r="BI256" s="1" t="s">
         <v>2541</v>
-      </c>
-      <c r="BI256" s="1" t="s">
-        <v>2542</v>
       </c>
       <c r="BM256" s="1" t="s">
         <v>113</v>
@@ -53376,7 +53312,7 @@
         <v>102</v>
       </c>
       <c r="BT256" s="1" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="BU256" s="1" t="s">
         <v>117</v>
@@ -53400,7 +53336,7 @@
         <v>121</v>
       </c>
       <c r="CE256" s="1" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="257" spans="1:84" x14ac:dyDescent="0.25">
@@ -53417,7 +53353,7 @@
         <v>123</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>98</v>
@@ -53429,22 +53365,22 @@
         <v>91</v>
       </c>
       <c r="I257" s="1" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K257" s="1" t="s">
+        <v>2546</v>
+      </c>
+      <c r="L257" s="1" t="s">
         <v>2547</v>
       </c>
-      <c r="L257" s="1" t="s">
+      <c r="M257" s="1" t="s">
+        <v>2530</v>
+      </c>
+      <c r="N257" s="1" t="s">
         <v>2548</v>
-      </c>
-      <c r="M257" s="1" t="s">
-        <v>2531</v>
-      </c>
-      <c r="N257" s="1" t="s">
-        <v>2549</v>
       </c>
       <c r="Q257" s="3">
         <v>26864</v>
@@ -53474,7 +53410,7 @@
         <v>42735</v>
       </c>
       <c r="AD257" s="1" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="AF257" s="1" t="s">
         <v>103</v>
@@ -53525,7 +53461,7 @@
         <v>99</v>
       </c>
       <c r="BH257" s="1" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="BM257" s="1" t="s">
         <v>113</v>
@@ -53537,13 +53473,13 @@
         <v>211</v>
       </c>
       <c r="BR257" s="1" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="BS257" s="3">
         <v>102</v>
       </c>
       <c r="BT257" s="1" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="BU257" s="1" t="s">
         <v>117</v>
@@ -53564,13 +53500,13 @@
         <v>98</v>
       </c>
       <c r="CC257" s="1" t="s">
+        <v>2553</v>
+      </c>
+      <c r="CD257" s="1" t="s">
         <v>2554</v>
       </c>
-      <c r="CD257" s="1" t="s">
+      <c r="CE257" s="1" t="s">
         <v>2555</v>
-      </c>
-      <c r="CE257" s="1" t="s">
-        <v>2556</v>
       </c>
     </row>
     <row r="258" spans="1:84" x14ac:dyDescent="0.25">
@@ -53605,10 +53541,10 @@
         <v>93</v>
       </c>
       <c r="K258" s="1" t="s">
+        <v>2556</v>
+      </c>
+      <c r="L258" s="1" t="s">
         <v>2557</v>
-      </c>
-      <c r="L258" s="1" t="s">
-        <v>2558</v>
       </c>
       <c r="O258" s="1" t="s">
         <v>97</v>
@@ -53689,7 +53625,7 @@
         <v>226</v>
       </c>
       <c r="CE258" s="1" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="259" spans="1:84" x14ac:dyDescent="0.25">
@@ -53724,16 +53660,16 @@
         <v>93</v>
       </c>
       <c r="K259" s="1" t="s">
+        <v>2558</v>
+      </c>
+      <c r="L259" s="1" t="s">
         <v>2559</v>
       </c>
-      <c r="L259" s="1" t="s">
+      <c r="M259" s="1" t="s">
+        <v>2530</v>
+      </c>
+      <c r="N259" s="1" t="s">
         <v>2560</v>
-      </c>
-      <c r="M259" s="1" t="s">
-        <v>2531</v>
-      </c>
-      <c r="N259" s="1" t="s">
-        <v>2561</v>
       </c>
       <c r="Q259" s="3">
         <v>25379</v>
@@ -53763,7 +53699,7 @@
         <v>39800</v>
       </c>
       <c r="AD259" s="1" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="AF259" s="1" t="s">
         <v>232</v>
@@ -53814,7 +53750,7 @@
         <v>99</v>
       </c>
       <c r="BH259" s="1" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="BM259" s="1" t="s">
         <v>113</v>
@@ -53826,13 +53762,13 @@
         <v>222</v>
       </c>
       <c r="BR259" s="1" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="BS259" s="3">
         <v>35915</v>
       </c>
       <c r="BT259" s="1" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="BU259" s="1" t="s">
         <v>117</v>
@@ -53847,7 +53783,7 @@
         <v>233</v>
       </c>
       <c r="BZ259" s="1" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="CA259" s="1" t="s">
         <v>119</v>
@@ -53862,7 +53798,7 @@
         <v>433</v>
       </c>
       <c r="CE259" s="1" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="260" spans="1:84" x14ac:dyDescent="0.25">
@@ -53897,13 +53833,13 @@
         <v>93</v>
       </c>
       <c r="K260" s="1" t="s">
+        <v>2567</v>
+      </c>
+      <c r="L260" s="1" t="s">
         <v>2568</v>
       </c>
-      <c r="L260" s="1" t="s">
+      <c r="N260" s="1" t="s">
         <v>2569</v>
-      </c>
-      <c r="N260" s="1" t="s">
-        <v>2570</v>
       </c>
       <c r="O260" s="1" t="s">
         <v>97</v>
@@ -53938,12 +53874,7 @@
       <c r="AA260" s="1">
         <v>0</v>
       </c>
-      <c r="AC260" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD260" s="1" t="s">
-        <v>2571</v>
-      </c>
+      <c r="AC260" s="3"/>
       <c r="AF260" s="1" t="s">
         <v>103</v>
       </c>
@@ -53993,7 +53924,7 @@
         <v>98</v>
       </c>
       <c r="AZ260" s="1" t="s">
-        <v>2572</v>
+        <v>2570</v>
       </c>
       <c r="BB260" s="1">
         <v>10</v>
@@ -54014,7 +53945,7 @@
         <v>110</v>
       </c>
       <c r="BH260" s="1" t="s">
-        <v>2573</v>
+        <v>2571</v>
       </c>
       <c r="BI260" s="1" t="s">
         <v>1059</v>
@@ -54026,7 +53957,7 @@
         <v>102</v>
       </c>
       <c r="BT260" s="1" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="BU260" s="1" t="s">
         <v>117</v>
@@ -54050,10 +53981,10 @@
         <v>1050</v>
       </c>
       <c r="CD260" s="1" t="s">
-        <v>2575</v>
+        <v>2573</v>
       </c>
       <c r="CE260" s="1" t="s">
-        <v>2576</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="261" spans="1:84" x14ac:dyDescent="0.25">
@@ -54088,10 +54019,10 @@
         <v>93</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>2577</v>
+        <v>2575</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>2578</v>
+        <v>2576</v>
       </c>
       <c r="O261" s="1" t="s">
         <v>97</v>
@@ -54172,7 +54103,7 @@
         <v>226</v>
       </c>
       <c r="CE261" s="1" t="s">
-        <v>2578</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="262" spans="1:84" x14ac:dyDescent="0.25">
@@ -54207,16 +54138,16 @@
         <v>93</v>
       </c>
       <c r="K262" s="1" t="s">
+        <v>2577</v>
+      </c>
+      <c r="L262" s="1" t="s">
+        <v>2578</v>
+      </c>
+      <c r="M262" s="1" t="s">
+        <v>2530</v>
+      </c>
+      <c r="N262" s="1" t="s">
         <v>2579</v>
-      </c>
-      <c r="L262" s="1" t="s">
-        <v>2580</v>
-      </c>
-      <c r="M262" s="1" t="s">
-        <v>2531</v>
-      </c>
-      <c r="N262" s="1" t="s">
-        <v>2581</v>
       </c>
       <c r="Q262" s="3">
         <v>17470</v>
@@ -54246,7 +54177,7 @@
         <v>43100</v>
       </c>
       <c r="AD262" s="1" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="AF262" s="1" t="s">
         <v>103</v>
@@ -54297,7 +54228,7 @@
         <v>98</v>
       </c>
       <c r="BH262" s="1" t="s">
-        <v>2582</v>
+        <v>2580</v>
       </c>
       <c r="BM262" s="1" t="s">
         <v>113</v>
@@ -54306,7 +54237,7 @@
         <v>102</v>
       </c>
       <c r="BT262" s="1" t="s">
-        <v>2583</v>
+        <v>2581</v>
       </c>
       <c r="BU262" s="1" t="s">
         <v>117</v>
@@ -54321,7 +54252,7 @@
         <v>97</v>
       </c>
       <c r="BZ262" s="1" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="CA262" s="1" t="s">
         <v>119</v>
@@ -54330,13 +54261,13 @@
         <v>98</v>
       </c>
       <c r="CC262" s="1" t="s">
+        <v>2582</v>
+      </c>
+      <c r="CD262" s="1" t="s">
+        <v>2583</v>
+      </c>
+      <c r="CE262" s="1" t="s">
         <v>2584</v>
-      </c>
-      <c r="CD262" s="1" t="s">
-        <v>2585</v>
-      </c>
-      <c r="CE262" s="1" t="s">
-        <v>2586</v>
       </c>
     </row>
     <row r="263" spans="1:84" x14ac:dyDescent="0.25">
@@ -54371,7 +54302,7 @@
         <v>93</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
       <c r="L263" s="1" t="s">
         <v>2106</v>
@@ -54490,16 +54421,16 @@
         <v>93</v>
       </c>
       <c r="K264" s="1" t="s">
+        <v>2586</v>
+      </c>
+      <c r="L264" s="1" t="s">
+        <v>2587</v>
+      </c>
+      <c r="M264" s="1" t="s">
+        <v>2530</v>
+      </c>
+      <c r="N264" s="1" t="s">
         <v>2588</v>
-      </c>
-      <c r="L264" s="1" t="s">
-        <v>2589</v>
-      </c>
-      <c r="M264" s="1" t="s">
-        <v>2531</v>
-      </c>
-      <c r="N264" s="1" t="s">
-        <v>2590</v>
       </c>
       <c r="Q264" s="3">
         <v>23356</v>
@@ -54526,7 +54457,7 @@
         <v>43105</v>
       </c>
       <c r="AD264" s="1" t="s">
-        <v>2591</v>
+        <v>2589</v>
       </c>
       <c r="AF264" s="1" t="s">
         <v>103</v>
@@ -54574,7 +54505,7 @@
         <v>98</v>
       </c>
       <c r="BH264" s="1" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
       <c r="BM264" s="1" t="s">
         <v>113</v>
@@ -54586,13 +54517,13 @@
         <v>99</v>
       </c>
       <c r="BR264" s="1" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="BS264" s="3">
         <v>34412</v>
       </c>
       <c r="BT264" s="1" t="s">
-        <v>2594</v>
+        <v>2592</v>
       </c>
       <c r="BU264" s="1" t="s">
         <v>117</v>
@@ -54610,13 +54541,13 @@
         <v>98</v>
       </c>
       <c r="CC264" s="1" t="s">
-        <v>2595</v>
+        <v>2593</v>
       </c>
       <c r="CD264" s="1" t="s">
         <v>2115</v>
       </c>
       <c r="CE264" s="1" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="265" spans="1:84" x14ac:dyDescent="0.25">
@@ -54651,13 +54582,13 @@
         <v>159</v>
       </c>
       <c r="K265" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="L265" s="1" t="s">
+        <v>2596</v>
+      </c>
+      <c r="N265" s="1" t="s">
         <v>2597</v>
-      </c>
-      <c r="L265" s="1" t="s">
-        <v>2598</v>
-      </c>
-      <c r="N265" s="1" t="s">
-        <v>2599</v>
       </c>
       <c r="O265" s="1" t="s">
         <v>97</v>
@@ -54753,13 +54684,13 @@
         <v>110</v>
       </c>
       <c r="BH265" s="1" t="s">
-        <v>2600</v>
+        <v>2598</v>
       </c>
       <c r="BM265" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT265" s="1" t="s">
-        <v>2601</v>
+        <v>2599</v>
       </c>
       <c r="BU265" s="1" t="s">
         <v>117</v>
@@ -54777,13 +54708,13 @@
         <v>98</v>
       </c>
       <c r="CC265" s="1" t="s">
+        <v>2600</v>
+      </c>
+      <c r="CD265" s="1" t="s">
+        <v>2601</v>
+      </c>
+      <c r="CE265" s="1" t="s">
         <v>2602</v>
-      </c>
-      <c r="CD265" s="1" t="s">
-        <v>2603</v>
-      </c>
-      <c r="CE265" s="1" t="s">
-        <v>2604</v>
       </c>
     </row>
     <row r="266" spans="1:84" x14ac:dyDescent="0.25">
@@ -54818,10 +54749,10 @@
         <v>93</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>2606</v>
+        <v>2604</v>
       </c>
       <c r="O266" s="1" t="s">
         <v>97</v>
@@ -54902,7 +54833,7 @@
         <v>226</v>
       </c>
       <c r="CE266" s="1" t="s">
-        <v>2606</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="267" spans="1:84" x14ac:dyDescent="0.25">
@@ -54937,16 +54868,16 @@
         <v>93</v>
       </c>
       <c r="K267" s="1" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L267" s="1" t="s">
+        <v>2606</v>
+      </c>
+      <c r="M267" s="1" t="s">
+        <v>2530</v>
+      </c>
+      <c r="N267" s="1" t="s">
         <v>2607</v>
-      </c>
-      <c r="L267" s="1" t="s">
-        <v>2608</v>
-      </c>
-      <c r="M267" s="1" t="s">
-        <v>2531</v>
-      </c>
-      <c r="N267" s="1" t="s">
-        <v>2609</v>
       </c>
       <c r="Q267" s="3">
         <v>17726</v>
@@ -54979,7 +54910,7 @@
         <v>43312</v>
       </c>
       <c r="AD267" s="1" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="AF267" s="1" t="s">
         <v>232</v>
@@ -55030,10 +54961,10 @@
         <v>98</v>
       </c>
       <c r="AZ267" s="1" t="s">
-        <v>2610</v>
+        <v>2608</v>
       </c>
       <c r="BH267" s="1" t="s">
-        <v>2611</v>
+        <v>2609</v>
       </c>
       <c r="BM267" s="1" t="s">
         <v>113</v>
@@ -55042,7 +54973,7 @@
         <v>102</v>
       </c>
       <c r="BT267" s="1" t="s">
-        <v>2612</v>
+        <v>2610</v>
       </c>
       <c r="BU267" s="1" t="s">
         <v>117</v>
@@ -55060,10 +54991,10 @@
         <v>98</v>
       </c>
       <c r="CC267" s="1" t="s">
-        <v>2613</v>
+        <v>2611</v>
       </c>
       <c r="CD267" s="1" t="s">
-        <v>2614</v>
+        <v>2612</v>
       </c>
       <c r="CE267" s="1" t="s">
         <v>822</v>
@@ -55101,16 +55032,16 @@
         <v>93</v>
       </c>
       <c r="K268" s="1" t="s">
+        <v>2613</v>
+      </c>
+      <c r="L268" s="1" t="s">
+        <v>2614</v>
+      </c>
+      <c r="M268" s="1" t="s">
+        <v>2530</v>
+      </c>
+      <c r="N268" s="1" t="s">
         <v>2615</v>
-      </c>
-      <c r="L268" s="1" t="s">
-        <v>2616</v>
-      </c>
-      <c r="M268" s="1" t="s">
-        <v>2531</v>
-      </c>
-      <c r="N268" s="1" t="s">
-        <v>2617</v>
       </c>
       <c r="Q268" s="3">
         <v>22645</v>
@@ -55137,7 +55068,7 @@
         <v>43298</v>
       </c>
       <c r="AD268" s="1" t="s">
-        <v>2618</v>
+        <v>2616</v>
       </c>
       <c r="AF268" s="1" t="s">
         <v>103</v>
@@ -55185,10 +55116,10 @@
         <v>98</v>
       </c>
       <c r="BH268" s="1" t="s">
-        <v>2619</v>
+        <v>2617</v>
       </c>
       <c r="BI268" s="1" t="s">
-        <v>2620</v>
+        <v>2618</v>
       </c>
       <c r="BM268" s="1" t="s">
         <v>113</v>
@@ -55197,13 +55128,13 @@
         <v>99</v>
       </c>
       <c r="BR268" s="1" t="s">
-        <v>2621</v>
+        <v>2619</v>
       </c>
       <c r="BS268" s="3">
         <v>35209</v>
       </c>
       <c r="BT268" s="1" t="s">
-        <v>2622</v>
+        <v>2620</v>
       </c>
       <c r="BU268" s="1" t="s">
         <v>117</v>
@@ -55224,10 +55155,10 @@
         <v>1498</v>
       </c>
       <c r="CD268" s="1" t="s">
-        <v>2623</v>
+        <v>2621</v>
       </c>
       <c r="CE268" s="1" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="269" spans="1:84" x14ac:dyDescent="0.25">
@@ -55262,16 +55193,16 @@
         <v>93</v>
       </c>
       <c r="K269" s="1" t="s">
+        <v>2622</v>
+      </c>
+      <c r="L269" s="1" t="s">
+        <v>2623</v>
+      </c>
+      <c r="M269" s="1" t="s">
+        <v>2530</v>
+      </c>
+      <c r="N269" s="1" t="s">
         <v>2624</v>
-      </c>
-      <c r="L269" s="1" t="s">
-        <v>2625</v>
-      </c>
-      <c r="M269" s="1" t="s">
-        <v>2531</v>
-      </c>
-      <c r="N269" s="1" t="s">
-        <v>2626</v>
       </c>
       <c r="Q269" s="3">
         <v>17041</v>
@@ -55298,7 +55229,7 @@
         <v>42735</v>
       </c>
       <c r="AD269" s="1" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="AF269" s="1" t="s">
         <v>103</v>
@@ -55349,7 +55280,7 @@
         <v>98</v>
       </c>
       <c r="BH269" s="1" t="s">
-        <v>2627</v>
+        <v>2625</v>
       </c>
       <c r="BM269" s="1" t="s">
         <v>113</v>
@@ -55358,7 +55289,7 @@
         <v>102</v>
       </c>
       <c r="BT269" s="1" t="s">
-        <v>2628</v>
+        <v>2626</v>
       </c>
       <c r="BU269" s="1" t="s">
         <v>117</v>
@@ -55379,13 +55310,13 @@
         <v>98</v>
       </c>
       <c r="CC269" s="1" t="s">
+        <v>2627</v>
+      </c>
+      <c r="CD269" s="1" t="s">
+        <v>2628</v>
+      </c>
+      <c r="CE269" s="1" t="s">
         <v>2629</v>
-      </c>
-      <c r="CD269" s="1" t="s">
-        <v>2630</v>
-      </c>
-      <c r="CE269" s="1" t="s">
-        <v>2631</v>
       </c>
     </row>
     <row r="270" spans="1:84" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -55435,13 +55366,13 @@
       <c r="P270" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q270" s="5">
+      <c r="Q270" s="7">
         <v>22441</v>
       </c>
       <c r="R270" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S270" s="5">
+      <c r="S270" s="7">
         <v>31747</v>
       </c>
       <c r="T270" s="4" t="s">
@@ -55536,7 +55467,7 @@
         <v>110</v>
       </c>
       <c r="BH270" s="4" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
       <c r="BI270" s="4"/>
       <c r="BJ270" s="4"/>
@@ -55629,13 +55560,13 @@
       <c r="P271" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q271" s="5">
+      <c r="Q271" s="7">
         <v>19912</v>
       </c>
       <c r="R271" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S271" s="5">
+      <c r="S271" s="7">
         <v>30682</v>
       </c>
       <c r="T271" s="4" t="s">
@@ -55730,7 +55661,7 @@
         <v>110</v>
       </c>
       <c r="BH271" s="4" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
       <c r="BI271" s="4"/>
       <c r="BJ271" s="4"/>
@@ -55823,13 +55754,13 @@
       <c r="P272" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q272" s="5">
+      <c r="Q272" s="7">
         <v>27848</v>
       </c>
       <c r="R272" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S272" s="5">
+      <c r="S272" s="7">
         <v>40664</v>
       </c>
       <c r="T272" s="4" t="s">
@@ -55920,7 +55851,7 @@
         <v>110</v>
       </c>
       <c r="BH272" s="4" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
       <c r="BI272" s="4"/>
       <c r="BJ272" s="4"/>
@@ -56017,13 +55948,13 @@
       <c r="P273" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q273" s="5">
+      <c r="Q273" s="7">
         <v>19744</v>
       </c>
       <c r="R273" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S273" s="5">
+      <c r="S273" s="7">
         <v>40664</v>
       </c>
       <c r="T273" s="4" t="s">
@@ -56114,7 +56045,7 @@
         <v>110</v>
       </c>
       <c r="BH273" s="4" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
       <c r="BI273" s="4"/>
       <c r="BJ273" s="4"/>
@@ -56209,13 +56140,13 @@
       <c r="P274" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q274" s="5">
+      <c r="Q274" s="7">
         <v>26965</v>
       </c>
       <c r="R274" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S274" s="5">
+      <c r="S274" s="7">
         <v>41051</v>
       </c>
       <c r="T274" s="4" t="s">
@@ -56306,7 +56237,7 @@
         <v>110</v>
       </c>
       <c r="BH274" s="4" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
       <c r="BI274" s="4"/>
       <c r="BJ274" s="4"/>
@@ -56401,13 +56332,13 @@
       <c r="P275" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q275" s="5">
+      <c r="Q275" s="7">
         <v>25227</v>
       </c>
       <c r="R275" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S275" s="5">
+      <c r="S275" s="7">
         <v>38078</v>
       </c>
       <c r="T275" s="4" t="s">
@@ -56502,7 +56433,7 @@
         <v>110</v>
       </c>
       <c r="BH275" s="4" t="s">
-        <v>2633</v>
+        <v>2631</v>
       </c>
       <c r="BI275" s="4"/>
       <c r="BJ275" s="4"/>
@@ -56606,13 +56537,13 @@
       <c r="P276" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q276" s="5">
+      <c r="Q276" s="7">
         <v>27413</v>
       </c>
       <c r="R276" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S276" s="5">
+      <c r="S276" s="7">
         <v>38322</v>
       </c>
       <c r="T276" s="4" t="s">
@@ -56707,7 +56638,7 @@
         <v>110</v>
       </c>
       <c r="BH276" s="4" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
       <c r="BI276" s="4"/>
       <c r="BJ276" s="4"/>
@@ -56789,14 +56720,14 @@
         <v>93</v>
       </c>
       <c r="K277" s="4" t="s">
+        <v>2345</v>
+      </c>
+      <c r="L277" s="4" t="s">
         <v>2346</v>
-      </c>
-      <c r="L277" s="4" t="s">
-        <v>2347</v>
       </c>
       <c r="M277" s="4"/>
       <c r="N277" s="4" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="O277" s="4" t="s">
         <v>97</v>
@@ -56804,13 +56735,13 @@
       <c r="P277" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q277" s="5">
+      <c r="Q277" s="7">
         <v>29305</v>
       </c>
       <c r="R277" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S277" s="5">
+      <c r="S277" s="7">
         <v>42369</v>
       </c>
       <c r="T277" s="4" t="s">
@@ -56885,7 +56816,7 @@
         <v>98</v>
       </c>
       <c r="AZ277" s="4" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="BA277" s="4" t="s">
         <v>267</v>
@@ -56903,7 +56834,7 @@
         <v>110</v>
       </c>
       <c r="BH277" s="4" t="s">
-        <v>2635</v>
+        <v>2633</v>
       </c>
       <c r="BI277" s="4"/>
       <c r="BJ277" s="4"/>
@@ -56918,7 +56849,7 @@
       <c r="BQ277" s="4"/>
       <c r="BR277" s="4"/>
       <c r="BT277" s="4" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="BU277" s="4" t="s">
         <v>117</v>
@@ -56939,17 +56870,18 @@
         <v>98</v>
       </c>
       <c r="CC277" s="4" t="s">
+        <v>2351</v>
+      </c>
+      <c r="CD277" s="4" t="s">
         <v>2352</v>
       </c>
-      <c r="CD277" s="4" t="s">
+      <c r="CE277" s="4" t="s">
         <v>2353</v>
-      </c>
-      <c r="CE277" s="4" t="s">
-        <v>2354</v>
       </c>
       <c r="CF277" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CF277" xr:uid="{521E3FCD-603B-4CA3-98F1-102AE0DA2A17}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>